--- a/biology/Zoologie/Hoplodactylus/Hoplodactylus.xlsx
+++ b/biology/Zoologie/Hoplodactylus/Hoplodactylus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hoplodactylus est un genre de gecko de la famille des Diplodactylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hoplodactylus est un genre de gecko de la famille des Diplodactylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre sont endémiques de Nouvelle-Zélande[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre sont endémiques de Nouvelle-Zélande.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des lézards nocturnes, d'aspect plutôt massif de couleur variable – généralement des variantes de brun et de beige, bien que certains aient du vert aussi –, à bandes transversales ou longitudinales selon les espèces.
 Certaines espèces peuvent changer de teinte, et devenir plus sombres ou plus clairs pour réguler l'absorption de la chaleur.
@@ -574,9 +590,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (5 septembre 2012)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (5 septembre 2012) :
 Hoplodactylus delcourti Bauer &amp; Russell, 1986
 Hoplodactylus duvaucelii (Duméril &amp; Bibron, 1836)</t>
         </is>
@@ -606,9 +624,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été démembré, car polyphylétique, depuis une étude génétique de Nielsen et al. publiée en 2011[3]. Des espèces qui appartenaient à ce genre ont été placées dans les genres Dactylocnemis, Mokopirirakau, Toropuku, Tukutuku et Woodworthia.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été démembré, car polyphylétique, depuis une étude génétique de Nielsen et al. publiée en 2011. Des espèces qui appartenaient à ce genre ont été placées dans les genres Dactylocnemis, Mokopirirakau, Toropuku, Tukutuku et Woodworthia.
 </t>
         </is>
       </c>
@@ -637,7 +657,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Fitzinger, 1843 : Systema Reptilium, fasciculus primus, Amblyglossae. Braumüller et Seidel, Wien, p. 1-106. (texte intégral).</t>
         </is>
